--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEVADA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEVADA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1439"/>
+  <dimension ref="A1:D1433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C11">
@@ -530,7 +530,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -587,7 +587,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C17">
@@ -626,7 +626,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C20">
@@ -709,7 +709,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C26">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C42">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C68">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C74">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C75">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C78">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C100">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C118">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C121">
@@ -2154,7 +2154,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C136">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C137">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C144">
@@ -2271,7 +2271,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C145">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2497,7 +2497,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C162">
@@ -2510,7 +2510,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2671,7 +2671,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C175">
@@ -2736,7 +2736,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C180">
@@ -2884,7 +2884,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C191">
@@ -2897,7 +2897,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C192">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C195">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C208">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C215">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C219">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C220">
@@ -3357,7 +3357,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C227">
@@ -3370,12 +3370,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C228">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C231">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C236">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C243">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C249">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C253">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C254">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C264">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C275">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C283">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C291">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C296">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C300">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C305">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C308">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C314">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C318">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C324">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C330">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C332">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C333">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C334">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C337">
@@ -4823,7 +4823,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C340">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C348">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C354">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C358">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C359">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C363">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C373">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C376">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C381">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C391">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C394">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C395">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C398">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C399">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C401">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C407">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C411">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C416">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C421">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C425">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C427">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C436">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C438">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C440">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C441">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C442">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C447">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C451">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C453">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C464">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C468">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C471">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C473">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C474">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C479">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C481">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C483">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C496">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C505">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C511">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C514">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C518">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C523">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C524">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C536">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C539">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C540">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C544">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C545">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C548">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C552">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C558">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C559">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C563">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C571">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C572">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C573">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C574">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C580">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C583">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C585">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C586">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C587">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -8340,7 +8340,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C608">
@@ -8366,7 +8366,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C610">
@@ -9250,7 +9250,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C678">
@@ -9536,7 +9536,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C700">
@@ -9736,7 +9736,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C715">
@@ -9814,7 +9814,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C721">
@@ -9931,7 +9931,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C730">
@@ -9944,7 +9944,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C731">
@@ -9988,7 +9988,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C734">
@@ -10001,7 +10001,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C735">
@@ -10066,7 +10066,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C740">
@@ -10157,7 +10157,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C747">
@@ -10235,7 +10235,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C753">
@@ -10318,7 +10318,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C759">
@@ -10331,7 +10331,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C760">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C761">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C766">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C769">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C774">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C776">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C778">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C779">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C785">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C794">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C803">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C812">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C837">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C859">
@@ -11857,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C877">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C889">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C892">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C898">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C904">
@@ -12624,7 +12624,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C936">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C937">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C938">
@@ -12663,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C939">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C940">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C941">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C942">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C943">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C946">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C947">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C948">
@@ -12793,7 +12793,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C949">
@@ -12806,7 +12806,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C950">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C951">
@@ -12832,7 +12832,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C952">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C971">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C975">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C992">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1004">
@@ -13526,7 +13526,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1005">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1013">
@@ -13721,7 +13721,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13812,7 +13812,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1027">
@@ -13916,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1035">
@@ -14020,7 +14020,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1043">
@@ -14046,7 +14046,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1045">
@@ -14059,7 +14059,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1046">
@@ -14202,7 +14202,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1057">
@@ -14215,7 +14215,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1058">
@@ -14280,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1063">
@@ -14306,7 +14306,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1065">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1066">
@@ -14384,7 +14384,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1071">
@@ -14527,7 +14527,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1082">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1101">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1102">
@@ -14805,7 +14805,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1103">
@@ -14935,7 +14935,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1113">
@@ -14961,7 +14961,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1115">
@@ -15005,7 +15005,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1118">
@@ -15062,7 +15062,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1122">
@@ -15166,7 +15166,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1130">
@@ -15205,7 +15205,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1133">
@@ -15231,7 +15231,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1135">
@@ -15309,7 +15309,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1141">
@@ -15322,7 +15322,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1142">
@@ -15348,7 +15348,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1144">
@@ -15600,7 +15600,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1163">
@@ -15943,7 +15943,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1189">
@@ -16073,7 +16073,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1199">
@@ -16195,7 +16195,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1208">
@@ -16221,7 +16221,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1210">
@@ -16421,7 +16421,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1225">
@@ -16486,7 +16486,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1230">
@@ -16582,7 +16582,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1237">
@@ -16608,7 +16608,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1239">
@@ -16634,7 +16634,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1241">
@@ -16751,7 +16751,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1250">
@@ -16764,7 +16764,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -16860,7 +16860,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1258">
@@ -17042,7 +17042,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1272">
@@ -17055,7 +17055,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1273">
@@ -17211,7 +17211,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1285">
@@ -17224,7 +17224,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1286">
@@ -17250,7 +17250,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1288">
@@ -17263,7 +17263,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1289">
@@ -17341,7 +17341,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1295">
@@ -17432,7 +17432,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1302">
@@ -17601,7 +17601,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1315">
@@ -17614,7 +17614,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1316">
@@ -17666,7 +17666,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1320">
@@ -17770,7 +17770,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1328">
@@ -17796,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1330">
@@ -17822,7 +17822,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1332">
@@ -18173,7 +18173,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1359">
@@ -18186,7 +18186,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1360">
@@ -18212,7 +18212,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1362">
@@ -18503,7 +18503,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1384">
@@ -18573,7 +18573,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1389">
@@ -18599,7 +18599,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1391">
@@ -18638,7 +18638,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1394">
@@ -18755,7 +18755,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1403">
@@ -18807,7 +18807,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1407">
@@ -18872,7 +18872,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1412">
@@ -18885,7 +18885,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1413">
@@ -19015,7 +19015,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1423">
@@ -19028,7 +19028,7 @@
     <row r="1424">
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1424">
@@ -19041,7 +19041,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1425">
@@ -19093,7 +19093,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1429">
@@ -19132,7 +19132,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1432">
@@ -19145,7 +19145,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1433">
@@ -19153,41 +19153,6 @@
       </c>
       <c r="D1433">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
